--- a/Code/Results/Cases/Case_0_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_114/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.60689437353034</v>
+        <v>10.31202652642125</v>
       </c>
       <c r="D2">
-        <v>5.686156177083206</v>
+        <v>4.958632881046337</v>
       </c>
       <c r="E2">
-        <v>10.77754000837523</v>
+        <v>11.34184065356047</v>
       </c>
       <c r="F2">
-        <v>26.75065735349677</v>
+        <v>49.94632990694338</v>
       </c>
       <c r="G2">
-        <v>45.21858201442938</v>
+        <v>65.6837915430914</v>
       </c>
       <c r="H2">
-        <v>11.30020761003733</v>
+        <v>23.51358782473558</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.4923930749508</v>
+        <v>10.04799720429031</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.149511219454814</v>
+        <v>8.476595989078547</v>
       </c>
       <c r="M2">
-        <v>99.83698553259502</v>
+        <v>62.76036394584125</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.332664730627433</v>
+        <v>10.46997525035151</v>
       </c>
       <c r="D3">
-        <v>5.336443016930535</v>
+        <v>4.853770489368898</v>
       </c>
       <c r="E3">
-        <v>9.841246222094204</v>
+        <v>11.3047279243419</v>
       </c>
       <c r="F3">
-        <v>24.60271940333921</v>
+        <v>50.66104340379878</v>
       </c>
       <c r="G3">
-        <v>40.64449626008651</v>
+        <v>66.5947747329275</v>
       </c>
       <c r="H3">
-        <v>10.9506951039712</v>
+        <v>23.79444759018024</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.77258240361328</v>
+        <v>10.12531108345997</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.448686102664638</v>
+        <v>8.40303260247274</v>
       </c>
       <c r="M3">
-        <v>92.0767582037295</v>
+        <v>59.71620204156128</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.766073709101414</v>
+        <v>10.57043731653633</v>
       </c>
       <c r="D4">
-        <v>5.119254769271927</v>
+        <v>4.787654474737342</v>
       </c>
       <c r="E4">
-        <v>9.272671292193319</v>
+        <v>11.28517581504225</v>
       </c>
       <c r="F4">
-        <v>23.91388598467002</v>
+        <v>51.12693918830038</v>
       </c>
       <c r="G4">
-        <v>38.54749210274876</v>
+        <v>67.19903524652912</v>
       </c>
       <c r="H4">
-        <v>10.88129903421196</v>
+        <v>23.97705369120794</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.341498339098635</v>
+        <v>10.1759863206904</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.014080426420364</v>
+        <v>8.358854466338695</v>
       </c>
       <c r="M4">
-        <v>87.25811124347433</v>
+        <v>57.76072275469672</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.939832918421335</v>
+        <v>10.61226107045064</v>
       </c>
       <c r="D5">
-        <v>5.029848916800205</v>
+        <v>4.760294021643734</v>
       </c>
       <c r="E5">
-        <v>9.04085539608762</v>
+        <v>11.27801896261407</v>
       </c>
       <c r="F5">
-        <v>23.72401624498279</v>
+        <v>51.32350514396327</v>
       </c>
       <c r="G5">
-        <v>37.81157773233147</v>
+        <v>67.45631633007577</v>
       </c>
       <c r="H5">
-        <v>10.88282919084636</v>
+        <v>24.05399717029794</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.166945463337925</v>
+        <v>10.19743549727441</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.834962868079846</v>
+        <v>8.34111157164908</v>
       </c>
       <c r="M5">
-        <v>85.27083240711015</v>
+        <v>56.94271650078443</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.968535219069347</v>
+        <v>10.61925957172018</v>
       </c>
       <c r="D6">
-        <v>5.014942456082879</v>
+        <v>4.755726143290437</v>
       </c>
       <c r="E6">
-        <v>9.002315816289689</v>
+        <v>11.27687945418722</v>
       </c>
       <c r="F6">
-        <v>23.69754901680064</v>
+        <v>51.35654737682586</v>
       </c>
       <c r="G6">
-        <v>37.69616933020783</v>
+        <v>67.49969728492896</v>
       </c>
       <c r="H6">
-        <v>10.88470627728912</v>
+        <v>24.06692570929252</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.137990339592248</v>
+        <v>10.20104515303457</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.805077169983911</v>
+        <v>8.338181404521681</v>
       </c>
       <c r="M6">
-        <v>84.93918044590133</v>
+        <v>56.80563005748249</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.768427686159304</v>
+        <v>10.57099777220725</v>
       </c>
       <c r="D7">
-        <v>5.118052952125521</v>
+        <v>4.787287149378913</v>
       </c>
       <c r="E7">
-        <v>9.269547268632001</v>
+        <v>11.28507601627535</v>
       </c>
       <c r="F7">
-        <v>23.91097683230635</v>
+        <v>51.12956309840501</v>
       </c>
       <c r="G7">
-        <v>38.53710409834596</v>
+        <v>67.2024606538227</v>
       </c>
       <c r="H7">
-        <v>10.88120711692359</v>
+        <v>23.97808116452255</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.339141515591037</v>
+        <v>10.17627236723652</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.01167395068299</v>
+        <v>8.358614111986922</v>
       </c>
       <c r="M7">
-        <v>87.23141692467793</v>
+        <v>57.74977555035024</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.859233473730943</v>
+        <v>10.36577050845062</v>
       </c>
       <c r="D8">
-        <v>5.565880901507239</v>
+        <v>4.922845520705034</v>
       </c>
       <c r="E8">
-        <v>10.45216551066676</v>
+        <v>11.32837116556951</v>
       </c>
       <c r="F8">
-        <v>25.7632647288678</v>
+        <v>50.18708822026562</v>
       </c>
       <c r="G8">
-        <v>43.52614198642156</v>
+        <v>65.98842001941748</v>
       </c>
       <c r="H8">
-        <v>11.14518823351486</v>
+        <v>23.60830522117704</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.24078552303727</v>
+        <v>10.07398554837281</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.90808876390104</v>
+        <v>8.451032537351507</v>
       </c>
       <c r="M8">
-        <v>97.16519812753145</v>
+        <v>61.72897388584272</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.584514768434616</v>
+        <v>9.990498632698323</v>
       </c>
       <c r="D9">
-        <v>6.446302964170719</v>
+        <v>5.174239710691023</v>
       </c>
       <c r="E9">
-        <v>12.95159985662641</v>
+        <v>11.43905517487627</v>
       </c>
       <c r="F9">
-        <v>35.05452375311723</v>
+        <v>48.55817081545181</v>
       </c>
       <c r="G9">
-        <v>58.72522350774565</v>
+        <v>63.9761253971764</v>
       </c>
       <c r="H9">
-        <v>14.48445062779136</v>
+        <v>22.96492407925648</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.216501491902193</v>
+        <v>9.899172622581021</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.7023141703266</v>
+        <v>8.639631583979194</v>
       </c>
       <c r="M9">
-        <v>116.9748326280201</v>
+        <v>68.82682144465983</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.748727971289027</v>
+        <v>9.73071387404811</v>
       </c>
       <c r="D10">
-        <v>7.163982860433969</v>
+        <v>5.349273162108151</v>
       </c>
       <c r="E10">
-        <v>15.33037596260575</v>
+        <v>11.53623400763577</v>
       </c>
       <c r="F10">
-        <v>46.41489570968658</v>
+        <v>47.50193745502528</v>
       </c>
       <c r="G10">
-        <v>76.45388557158115</v>
+        <v>62.73999238665871</v>
       </c>
       <c r="H10">
-        <v>18.8434133814981</v>
+        <v>22.54379105091039</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.19127259793794</v>
+        <v>9.786971664743639</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.27449471000648</v>
+        <v>8.782034884683092</v>
       </c>
       <c r="M10">
-        <v>134.2868863297816</v>
+        <v>73.59096680787377</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.383693171971558</v>
+        <v>9.615844013188216</v>
       </c>
       <c r="D11">
-        <v>7.574003936672636</v>
+        <v>5.426641186095941</v>
       </c>
       <c r="E11">
-        <v>16.99329594213229</v>
+        <v>11.58391119507982</v>
       </c>
       <c r="F11">
-        <v>55.10628598055211</v>
+        <v>47.05362523673597</v>
       </c>
       <c r="G11">
-        <v>89.80902567165468</v>
+        <v>62.23442969791233</v>
       </c>
       <c r="H11">
-        <v>22.15318429799025</v>
+        <v>22.36382324394052</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.62309786741843</v>
+        <v>9.739582138413114</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.29146773332727</v>
+        <v>8.847514567297281</v>
       </c>
       <c r="M11">
-        <v>145.48029710347</v>
+        <v>75.65759815347219</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.454289804517666</v>
+        <v>9.572809290217078</v>
       </c>
       <c r="D12">
-        <v>7.787643942938366</v>
+        <v>5.455602094803395</v>
       </c>
       <c r="E12">
-        <v>18.0469401191276</v>
+        <v>11.60246555801229</v>
       </c>
       <c r="F12">
-        <v>60.75514643958376</v>
+        <v>46.88864358717667</v>
       </c>
       <c r="G12">
-        <v>98.43201338180974</v>
+        <v>62.05152050191265</v>
       </c>
       <c r="H12">
-        <v>24.29648863854062</v>
+        <v>22.29738253093575</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.54875707036742</v>
+        <v>9.722173933267197</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.90096616052189</v>
+        <v>8.872399211797379</v>
       </c>
       <c r="M12">
-        <v>152.1009065842976</v>
+        <v>76.42554965698798</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.166163015720592</v>
+        <v>9.582057140950601</v>
       </c>
       <c r="D13">
-        <v>7.734317809102505</v>
+        <v>5.449380003391684</v>
       </c>
       <c r="E13">
-        <v>17.76541123003031</v>
+        <v>11.59844728954132</v>
       </c>
       <c r="F13">
-        <v>59.24088579639905</v>
+        <v>46.92395989324684</v>
       </c>
       <c r="G13">
-        <v>96.12429497924137</v>
+        <v>62.090527430881</v>
       </c>
       <c r="H13">
-        <v>23.72252103207823</v>
+        <v>22.31161503882356</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.30020347905997</v>
+        <v>9.725899007003646</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.74071366152958</v>
+        <v>8.867036087455043</v>
       </c>
       <c r="M13">
-        <v>150.3682377113263</v>
+        <v>76.26081072754431</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.453612585016927</v>
+        <v>9.612294289588359</v>
       </c>
       <c r="D14">
-        <v>7.589256381337687</v>
+        <v>5.429030631728786</v>
       </c>
       <c r="E14">
-        <v>17.06279945194801</v>
+        <v>11.58542764674766</v>
       </c>
       <c r="F14">
-        <v>55.4768434973012</v>
+        <v>47.03995525897893</v>
       </c>
       <c r="G14">
-        <v>90.37590733376831</v>
+        <v>62.21920834906278</v>
       </c>
       <c r="H14">
-        <v>22.29396276804892</v>
+        <v>22.35832263127016</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.68375641609136</v>
+        <v>9.738139116185284</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.33249790394809</v>
+        <v>8.849560126185265</v>
       </c>
       <c r="M14">
-        <v>145.9284210796185</v>
+        <v>75.72107213031212</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.108191289650942</v>
+        <v>9.630875490320383</v>
       </c>
       <c r="D15">
-        <v>7.512117655060868</v>
+        <v>5.416521861194052</v>
       </c>
       <c r="E15">
-        <v>16.71833295030035</v>
+        <v>11.57751788823147</v>
       </c>
       <c r="F15">
-        <v>53.64456864075358</v>
+        <v>47.11163375564801</v>
       </c>
       <c r="G15">
-        <v>87.57107934719684</v>
+        <v>62.29915228043674</v>
       </c>
       <c r="H15">
-        <v>21.59761185005002</v>
+        <v>22.38715620962582</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.38372804979692</v>
+        <v>9.745706869544867</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.12799396001729</v>
+        <v>8.838866831221047</v>
       </c>
       <c r="M15">
-        <v>143.6918030885039</v>
+        <v>75.38855629256084</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.665510773088305</v>
+        <v>9.738286462251827</v>
       </c>
       <c r="D16">
-        <v>7.140287889707678</v>
+        <v>5.34417051172666</v>
       </c>
       <c r="E16">
-        <v>15.2433941773237</v>
+        <v>11.5331881128736</v>
       </c>
       <c r="F16">
-        <v>45.97271577524397</v>
+        <v>47.53189633569338</v>
       </c>
       <c r="G16">
-        <v>75.77088150672395</v>
+        <v>62.77420579536124</v>
       </c>
       <c r="H16">
-        <v>18.67458146800055</v>
+        <v>22.55578929504595</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.11747999898822</v>
+        <v>9.790143169857586</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.21942893653874</v>
+        <v>8.777768706457861</v>
       </c>
       <c r="M16">
-        <v>133.6768531655189</v>
+        <v>73.4538674763146</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.003054099500856</v>
+        <v>9.805018621493064</v>
       </c>
       <c r="D17">
-        <v>6.941289707965587</v>
+        <v>5.299198461095814</v>
       </c>
       <c r="E17">
-        <v>14.5405421385482</v>
+        <v>11.50688281696615</v>
       </c>
       <c r="F17">
-        <v>42.46183629300711</v>
+        <v>47.79806259201351</v>
       </c>
       <c r="G17">
-        <v>70.33197785641384</v>
+        <v>63.08043332870344</v>
       </c>
       <c r="H17">
-        <v>17.33217559754933</v>
+        <v>22.6622407159403</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.52550311987231</v>
+        <v>9.818346908902829</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.76766867130406</v>
+        <v>8.740457786082491</v>
       </c>
       <c r="M17">
-        <v>128.6634656670107</v>
+        <v>72.24109413698821</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.664725962768208</v>
+        <v>9.843713235750494</v>
       </c>
       <c r="D18">
-        <v>6.832248656793211</v>
+        <v>5.273120087220806</v>
       </c>
       <c r="E18">
-        <v>14.17344356330922</v>
+        <v>11.49207927673161</v>
       </c>
       <c r="F18">
-        <v>40.67816017807131</v>
+        <v>47.95417250665287</v>
       </c>
       <c r="G18">
-        <v>67.55616490655953</v>
+        <v>63.26188621153148</v>
       </c>
       <c r="H18">
-        <v>16.64869215105396</v>
+        <v>22.7245587486563</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.21942502603937</v>
+        <v>9.834911843854742</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.52692510148121</v>
+        <v>8.719064077606776</v>
       </c>
       <c r="M18">
-        <v>126.0290223922664</v>
+        <v>71.53407648053549</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.555794547883151</v>
+        <v>9.856868507603014</v>
       </c>
       <c r="D19">
-        <v>6.796018960422525</v>
+        <v>5.264254442946844</v>
       </c>
       <c r="E19">
-        <v>14.05390202211897</v>
+        <v>11.48712310530837</v>
       </c>
       <c r="F19">
-        <v>40.10571195498575</v>
+        <v>48.00754240377895</v>
       </c>
       <c r="G19">
-        <v>66.66317154119812</v>
+        <v>63.32422549465014</v>
       </c>
       <c r="H19">
-        <v>16.42908737261124</v>
+        <v>22.74584460334407</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.12022331186592</v>
+        <v>9.840578983655018</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.44782493293468</v>
+        <v>8.711832325870219</v>
       </c>
       <c r="M19">
-        <v>125.1624489813854</v>
+        <v>71.29307329287627</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.06868448682306</v>
+        <v>9.797882656926514</v>
       </c>
       <c r="D20">
-        <v>6.961847213154463</v>
+        <v>5.304007809508649</v>
       </c>
       <c r="E20">
-        <v>14.6110690793575</v>
+        <v>11.50964925351816</v>
       </c>
       <c r="F20">
-        <v>42.80871735822291</v>
+        <v>47.76941527232626</v>
       </c>
       <c r="G20">
-        <v>70.87072970362425</v>
+        <v>63.04728175210915</v>
       </c>
       <c r="H20">
-        <v>17.46497031572333</v>
+        <v>22.65079569088467</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.58455385716875</v>
+        <v>9.815309000038143</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.81354512067036</v>
+        <v>8.744422795648745</v>
       </c>
       <c r="M20">
-        <v>129.1705199727551</v>
+        <v>72.37117665852844</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.638862286784099</v>
+        <v>9.603400407925486</v>
       </c>
       <c r="D21">
-        <v>7.62878405492383</v>
+        <v>5.435016965657497</v>
       </c>
       <c r="E21">
-        <v>17.2464332610342</v>
+        <v>11.58923825282049</v>
       </c>
       <c r="F21">
-        <v>56.45769865923693</v>
+        <v>47.0057534358418</v>
       </c>
       <c r="G21">
-        <v>91.87556361881867</v>
+        <v>62.18117688249806</v>
       </c>
       <c r="H21">
-        <v>22.66647616310407</v>
+        <v>22.34455675713032</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.84430816388043</v>
+        <v>9.734529218951415</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.44033842483292</v>
+        <v>8.854690918524415</v>
       </c>
       <c r="M21">
-        <v>147.1046855460192</v>
+        <v>75.88000479316996</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.638862286784099</v>
+        <v>9.478993857245756</v>
       </c>
       <c r="D22">
-        <v>7.62878405492383</v>
+        <v>5.518671648431772</v>
       </c>
       <c r="E22">
-        <v>17.2464332610342</v>
+        <v>11.64416928244677</v>
       </c>
       <c r="F22">
-        <v>56.45769865923693</v>
+        <v>46.53462651774783</v>
       </c>
       <c r="G22">
-        <v>91.87556361881867</v>
+        <v>61.66507239327527</v>
       </c>
       <c r="H22">
-        <v>22.66647616310407</v>
+        <v>22.15439530232657</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.84430816388043</v>
+        <v>9.684872385318887</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.44033842483292</v>
+        <v>8.927270530701135</v>
       </c>
       <c r="M22">
-        <v>147.1046855460192</v>
+        <v>78.08786628756377</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.638862286784099</v>
+        <v>9.545148983844213</v>
       </c>
       <c r="D23">
-        <v>7.62878405492383</v>
+        <v>5.474207368817307</v>
       </c>
       <c r="E23">
-        <v>17.2464332610342</v>
+        <v>11.61458453329714</v>
       </c>
       <c r="F23">
-        <v>56.45769865923693</v>
+        <v>46.78346093234111</v>
       </c>
       <c r="G23">
-        <v>91.87556361881867</v>
+        <v>61.93582807898827</v>
       </c>
       <c r="H23">
-        <v>22.66647616310407</v>
+        <v>22.25496049453872</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.84430816388043</v>
+        <v>9.711083835791619</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.44033842483292</v>
+        <v>8.888490275511797</v>
       </c>
       <c r="M23">
-        <v>147.1046855460192</v>
+        <v>76.91734327033039</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.038887567180453</v>
+        <v>9.801107799603956</v>
       </c>
       <c r="D24">
-        <v>6.952537417119693</v>
+        <v>5.301834197806478</v>
       </c>
       <c r="E24">
-        <v>14.57907532932869</v>
+        <v>11.50839755176331</v>
       </c>
       <c r="F24">
-        <v>42.65119791627427</v>
+        <v>47.78235712082086</v>
       </c>
       <c r="G24">
-        <v>70.62612225048419</v>
+        <v>63.06225279256117</v>
       </c>
       <c r="H24">
-        <v>17.40467274912069</v>
+        <v>22.65596650833618</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.5577563497061</v>
+        <v>9.816681348655194</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.79274880819627</v>
+        <v>8.742630036899094</v>
       </c>
       <c r="M24">
-        <v>128.9391943289432</v>
+        <v>72.31239679370468</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.99038836996899</v>
+        <v>10.08917491754509</v>
       </c>
       <c r="D25">
-        <v>6.203690107084644</v>
+        <v>5.107870033168248</v>
       </c>
       <c r="E25">
-        <v>12.2309128645644</v>
+        <v>11.40633599277107</v>
       </c>
       <c r="F25">
-        <v>32.01832594994459</v>
+        <v>48.97468926642887</v>
       </c>
       <c r="G25">
-        <v>53.88170569202146</v>
+        <v>64.47930105339498</v>
       </c>
       <c r="H25">
-        <v>13.30683495647656</v>
+        <v>23.13005491158086</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.636475714137557</v>
+        <v>9.943653959021132</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.19944976203175</v>
+        <v>8.587889153071265</v>
       </c>
       <c r="M25">
-        <v>111.4351780971892</v>
+        <v>66.98461720017285</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_114/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_114/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.31202652642125</v>
+        <v>1.606894373530333</v>
       </c>
       <c r="D2">
-        <v>4.958632881046337</v>
+        <v>5.686156177083146</v>
       </c>
       <c r="E2">
-        <v>11.34184065356047</v>
+        <v>10.77754000837526</v>
       </c>
       <c r="F2">
-        <v>49.94632990694338</v>
+        <v>26.75065735349677</v>
       </c>
       <c r="G2">
-        <v>65.6837915430914</v>
+        <v>45.21858201442939</v>
       </c>
       <c r="H2">
-        <v>23.51358782473558</v>
+        <v>11.30020761003738</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.04799720429031</v>
+        <v>7.492393074950816</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.476595989078547</v>
+        <v>9.149511219454814</v>
       </c>
       <c r="M2">
-        <v>62.76036394584125</v>
+        <v>99.83698553259512</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.46997525035151</v>
+        <v>2.332664730627435</v>
       </c>
       <c r="D3">
-        <v>4.853770489368898</v>
+        <v>5.336443016930495</v>
       </c>
       <c r="E3">
-        <v>11.3047279243419</v>
+        <v>9.841246222094259</v>
       </c>
       <c r="F3">
-        <v>50.66104340379878</v>
+        <v>24.60271940333917</v>
       </c>
       <c r="G3">
-        <v>66.5947747329275</v>
+        <v>40.64449626008652</v>
       </c>
       <c r="H3">
-        <v>23.79444759018024</v>
+        <v>10.95069510397118</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.12531108345997</v>
+        <v>6.772582403613299</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.40303260247274</v>
+        <v>8.448686102664684</v>
       </c>
       <c r="M3">
-        <v>59.71620204156128</v>
+        <v>92.0767582037295</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.57043731653633</v>
+        <v>2.766073709101557</v>
       </c>
       <c r="D4">
-        <v>4.787654474737342</v>
+        <v>5.119254769271941</v>
       </c>
       <c r="E4">
-        <v>11.28517581504225</v>
+        <v>9.272671292193346</v>
       </c>
       <c r="F4">
-        <v>51.12693918830038</v>
+        <v>23.91388598466979</v>
       </c>
       <c r="G4">
-        <v>67.19903524652912</v>
+        <v>38.54749210274852</v>
       </c>
       <c r="H4">
-        <v>23.97705369120794</v>
+        <v>10.88129903421189</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.1759863206904</v>
+        <v>6.341498339098626</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.358854466338695</v>
+        <v>8.014080426420374</v>
       </c>
       <c r="M4">
-        <v>57.76072275469672</v>
+        <v>87.25811124347462</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.61226107045064</v>
+        <v>2.939832918421471</v>
       </c>
       <c r="D5">
-        <v>4.760294021643734</v>
+        <v>5.029848916800121</v>
       </c>
       <c r="E5">
-        <v>11.27801896261407</v>
+        <v>9.040855396087558</v>
       </c>
       <c r="F5">
-        <v>51.32350514396327</v>
+        <v>23.72401624498298</v>
       </c>
       <c r="G5">
-        <v>67.45631633007577</v>
+        <v>37.81157773233152</v>
       </c>
       <c r="H5">
-        <v>24.05399717029794</v>
+        <v>10.88282919084657</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.19743549727441</v>
+        <v>6.166945463337846</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.34111157164908</v>
+        <v>7.834962868079817</v>
       </c>
       <c r="M5">
-        <v>56.94271650078443</v>
+        <v>85.27083240710996</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.61925957172018</v>
+        <v>2.968535219069085</v>
       </c>
       <c r="D6">
-        <v>4.755726143290437</v>
+        <v>5.01494245608303</v>
       </c>
       <c r="E6">
-        <v>11.27687945418722</v>
+        <v>9.002315816289737</v>
       </c>
       <c r="F6">
-        <v>51.35654737682586</v>
+        <v>23.69754901680048</v>
       </c>
       <c r="G6">
-        <v>67.49969728492896</v>
+        <v>37.69616933020765</v>
       </c>
       <c r="H6">
-        <v>24.06692570929252</v>
+        <v>10.88470627728903</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.20104515303457</v>
+        <v>6.137990339592381</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.338181404521681</v>
+        <v>7.805077169983946</v>
       </c>
       <c r="M6">
-        <v>56.80563005748249</v>
+        <v>84.93918044590166</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.57099777220725</v>
+        <v>2.768427686159034</v>
       </c>
       <c r="D7">
-        <v>4.787287149378913</v>
+        <v>5.118052952125562</v>
       </c>
       <c r="E7">
-        <v>11.28507601627535</v>
+        <v>9.269547268632014</v>
       </c>
       <c r="F7">
-        <v>51.12956309840501</v>
+        <v>23.91097683230626</v>
       </c>
       <c r="G7">
-        <v>67.2024606538227</v>
+        <v>38.53710409834598</v>
       </c>
       <c r="H7">
-        <v>23.97808116452255</v>
+        <v>10.88120711692349</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.17627236723652</v>
+        <v>6.339141515591066</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.358614111986922</v>
+        <v>8.011673950682981</v>
       </c>
       <c r="M7">
-        <v>57.74977555035024</v>
+        <v>87.23141692467799</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.36577050845062</v>
+        <v>1.859233473731075</v>
       </c>
       <c r="D8">
-        <v>4.922845520705034</v>
+        <v>5.565880901507197</v>
       </c>
       <c r="E8">
-        <v>11.32837116556951</v>
+        <v>10.45216551066676</v>
       </c>
       <c r="F8">
-        <v>50.18708822026562</v>
+        <v>25.76326472886784</v>
       </c>
       <c r="G8">
-        <v>65.98842001941748</v>
+        <v>43.52614198642158</v>
       </c>
       <c r="H8">
-        <v>23.60830522117704</v>
+        <v>11.14518823351487</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.07398554837281</v>
+        <v>7.240785523037246</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.451032537351507</v>
+        <v>8.908088763901043</v>
       </c>
       <c r="M8">
-        <v>61.72897388584272</v>
+        <v>97.16519812753137</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.990498632698323</v>
+        <v>2.584514768434482</v>
       </c>
       <c r="D9">
-        <v>5.174239710691023</v>
+        <v>6.44630296417067</v>
       </c>
       <c r="E9">
-        <v>11.43905517487627</v>
+        <v>12.95159985662641</v>
       </c>
       <c r="F9">
-        <v>48.55817081545181</v>
+        <v>35.05452375311705</v>
       </c>
       <c r="G9">
-        <v>63.9761253971764</v>
+        <v>58.72522350774531</v>
       </c>
       <c r="H9">
-        <v>22.96492407925648</v>
+        <v>14.48445062779128</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.899172622581021</v>
+        <v>9.216501491902179</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.639631583979194</v>
+        <v>10.7023141703266</v>
       </c>
       <c r="M9">
-        <v>68.82682144465983</v>
+        <v>116.9748326280199</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.73071387404811</v>
+        <v>4.748727971289027</v>
       </c>
       <c r="D10">
-        <v>5.349273162108151</v>
+        <v>7.163982860434047</v>
       </c>
       <c r="E10">
-        <v>11.53623400763577</v>
+        <v>15.33037596260575</v>
       </c>
       <c r="F10">
-        <v>47.50193745502528</v>
+        <v>46.41489570968698</v>
       </c>
       <c r="G10">
-        <v>62.73999238665871</v>
+        <v>76.45388557158171</v>
       </c>
       <c r="H10">
-        <v>22.54379105091039</v>
+        <v>18.84341338149834</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.786971664743639</v>
+        <v>11.19127259793802</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.782034884683092</v>
+        <v>12.27449471000649</v>
       </c>
       <c r="M10">
-        <v>73.59096680787377</v>
+        <v>134.2868863297819</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.615844013188216</v>
+        <v>6.383693171971426</v>
       </c>
       <c r="D11">
-        <v>5.426641186095941</v>
+        <v>7.574003936672587</v>
       </c>
       <c r="E11">
-        <v>11.58391119507982</v>
+        <v>16.99329594213213</v>
       </c>
       <c r="F11">
-        <v>47.05362523673597</v>
+        <v>55.10628598055065</v>
       </c>
       <c r="G11">
-        <v>62.23442969791233</v>
+        <v>89.80902567165262</v>
       </c>
       <c r="H11">
-        <v>22.36382324394052</v>
+        <v>22.15318429798967</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.739582138413114</v>
+        <v>12.62309786741827</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.847514567297281</v>
+        <v>13.29146773332719</v>
       </c>
       <c r="M11">
-        <v>75.65759815347219</v>
+        <v>145.480297103469</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.572809290217078</v>
+        <v>7.454289804517799</v>
       </c>
       <c r="D12">
-        <v>5.455602094803395</v>
+        <v>7.787643942938255</v>
       </c>
       <c r="E12">
-        <v>11.60246555801229</v>
+        <v>18.04694011912777</v>
       </c>
       <c r="F12">
-        <v>46.88864358717667</v>
+        <v>60.75514643958319</v>
       </c>
       <c r="G12">
-        <v>62.05152050191265</v>
+        <v>98.43201338180859</v>
       </c>
       <c r="H12">
-        <v>22.29738253093575</v>
+        <v>24.29648863854035</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.722173933267197</v>
+        <v>13.5487570703675</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.872399211797379</v>
+        <v>13.90096616052196</v>
       </c>
       <c r="M12">
-        <v>76.42554965698798</v>
+        <v>152.100906584298</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.582057140950601</v>
+        <v>7.16616301572059</v>
       </c>
       <c r="D13">
-        <v>5.449380003391684</v>
+        <v>7.734317809102478</v>
       </c>
       <c r="E13">
-        <v>11.59844728954132</v>
+        <v>17.76541123003026</v>
       </c>
       <c r="F13">
-        <v>46.92395989324684</v>
+        <v>59.24088579639848</v>
       </c>
       <c r="G13">
-        <v>62.090527430881</v>
+        <v>96.12429497924046</v>
       </c>
       <c r="H13">
-        <v>22.31161503882356</v>
+        <v>23.72252103207802</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.725899007003646</v>
+        <v>13.3002034790599</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.867036087455043</v>
+        <v>13.74071366152958</v>
       </c>
       <c r="M13">
-        <v>76.26081072754431</v>
+        <v>150.3682377113261</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.612294289588359</v>
+        <v>6.45361258501693</v>
       </c>
       <c r="D14">
-        <v>5.429030631728786</v>
+        <v>7.589256381337512</v>
       </c>
       <c r="E14">
-        <v>11.58542764674766</v>
+        <v>17.06279945194789</v>
       </c>
       <c r="F14">
-        <v>47.03995525897893</v>
+        <v>55.47684349730051</v>
       </c>
       <c r="G14">
-        <v>62.21920834906278</v>
+        <v>90.375907333767</v>
       </c>
       <c r="H14">
-        <v>22.35832263127016</v>
+        <v>22.29396276804867</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.738139116185284</v>
+        <v>12.68375641609117</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.849560126185265</v>
+        <v>13.33249790394805</v>
       </c>
       <c r="M14">
-        <v>75.72107213031212</v>
+        <v>145.9284210796178</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.630875490320383</v>
+        <v>6.108191289651079</v>
       </c>
       <c r="D15">
-        <v>5.416521861194052</v>
+        <v>7.512117655060939</v>
       </c>
       <c r="E15">
-        <v>11.57751788823147</v>
+        <v>16.71833295030034</v>
       </c>
       <c r="F15">
-        <v>47.11163375564801</v>
+        <v>53.64456864075314</v>
       </c>
       <c r="G15">
-        <v>62.29915228043674</v>
+        <v>87.57107934719636</v>
       </c>
       <c r="H15">
-        <v>22.38715620962582</v>
+        <v>21.59761185004985</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.745706869544867</v>
+        <v>12.38372804979694</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.838866831221047</v>
+        <v>13.12799396001731</v>
       </c>
       <c r="M15">
-        <v>75.38855629256084</v>
+        <v>143.6918030885039</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.738286462251827</v>
+        <v>4.665510773088296</v>
       </c>
       <c r="D16">
-        <v>5.34417051172666</v>
+        <v>7.140287889707563</v>
       </c>
       <c r="E16">
-        <v>11.5331881128736</v>
+        <v>15.24339417732357</v>
       </c>
       <c r="F16">
-        <v>47.53189633569338</v>
+        <v>45.97271577524313</v>
       </c>
       <c r="G16">
-        <v>62.77420579536124</v>
+        <v>75.77088150672266</v>
       </c>
       <c r="H16">
-        <v>22.55578929504595</v>
+        <v>18.67458146800027</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.790143169857586</v>
+        <v>11.11747999898809</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.777768706457861</v>
+        <v>12.21942893653869</v>
       </c>
       <c r="M16">
-        <v>73.4538674763146</v>
+        <v>133.6768531655182</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.805018621493064</v>
+        <v>4.003054099500987</v>
       </c>
       <c r="D17">
-        <v>5.299198461095814</v>
+        <v>6.941289707965559</v>
       </c>
       <c r="E17">
-        <v>11.50688281696615</v>
+        <v>14.54054213854826</v>
       </c>
       <c r="F17">
-        <v>47.79806259201351</v>
+        <v>42.4618362930072</v>
       </c>
       <c r="G17">
-        <v>63.08043332870344</v>
+        <v>70.33197785641376</v>
       </c>
       <c r="H17">
-        <v>22.6622407159403</v>
+        <v>17.33217559754938</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.818346908902829</v>
+        <v>10.52550311987233</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.740457786082491</v>
+        <v>11.76766867130412</v>
       </c>
       <c r="M17">
-        <v>72.24109413698821</v>
+        <v>128.6634656670107</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.843713235750494</v>
+        <v>3.664725962768076</v>
       </c>
       <c r="D18">
-        <v>5.273120087220806</v>
+        <v>6.832248656793224</v>
       </c>
       <c r="E18">
-        <v>11.49207927673161</v>
+        <v>14.17344356330923</v>
       </c>
       <c r="F18">
-        <v>47.95417250665287</v>
+        <v>40.67816017807174</v>
       </c>
       <c r="G18">
-        <v>63.26188621153148</v>
+        <v>67.55616490656026</v>
       </c>
       <c r="H18">
-        <v>22.7245587486563</v>
+        <v>16.64869215105406</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.834911843854742</v>
+        <v>10.2194250260393</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.719064077606776</v>
+        <v>11.52692510148125</v>
       </c>
       <c r="M18">
-        <v>71.53407648053549</v>
+        <v>126.0290223922665</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.856868507603014</v>
+        <v>3.555794547883289</v>
       </c>
       <c r="D19">
-        <v>5.264254442946844</v>
+        <v>6.796018960422447</v>
       </c>
       <c r="E19">
-        <v>11.48712310530837</v>
+        <v>14.05390202211902</v>
       </c>
       <c r="F19">
-        <v>48.00754240377895</v>
+        <v>40.10571195498594</v>
       </c>
       <c r="G19">
-        <v>63.32422549465014</v>
+        <v>66.66317154119839</v>
       </c>
       <c r="H19">
-        <v>22.74584460334407</v>
+        <v>16.42908737261127</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.840578983655018</v>
+        <v>10.12022331186596</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.711832325870219</v>
+        <v>11.44782493293471</v>
       </c>
       <c r="M19">
-        <v>71.29307329287627</v>
+        <v>125.1624489813855</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.797882656926514</v>
+        <v>4.068684486823184</v>
       </c>
       <c r="D20">
-        <v>5.304007809508649</v>
+        <v>6.961847213154456</v>
       </c>
       <c r="E20">
-        <v>11.50964925351816</v>
+        <v>14.61106907935749</v>
       </c>
       <c r="F20">
-        <v>47.76941527232626</v>
+        <v>42.80871735822313</v>
       </c>
       <c r="G20">
-        <v>63.04728175210915</v>
+        <v>70.87072970362455</v>
       </c>
       <c r="H20">
-        <v>22.65079569088467</v>
+        <v>17.46497031572337</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.815309000038143</v>
+        <v>10.58455385716875</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.744422795648745</v>
+        <v>11.81354512067034</v>
       </c>
       <c r="M20">
-        <v>72.37117665852844</v>
+        <v>129.1705199727553</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.603400407925486</v>
+        <v>6.638862286783572</v>
       </c>
       <c r="D21">
-        <v>5.435016965657497</v>
+        <v>7.628784054923732</v>
       </c>
       <c r="E21">
-        <v>11.58923825282049</v>
+        <v>17.24643326103404</v>
       </c>
       <c r="F21">
-        <v>47.0057534358418</v>
+        <v>56.45769865923532</v>
       </c>
       <c r="G21">
-        <v>62.18117688249806</v>
+        <v>91.87556361881629</v>
       </c>
       <c r="H21">
-        <v>22.34455675713032</v>
+        <v>22.66647616310343</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.734529218951415</v>
+        <v>12.84430816388028</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.854690918524415</v>
+        <v>13.44033842483287</v>
       </c>
       <c r="M21">
-        <v>75.88000479316996</v>
+        <v>147.1046855460181</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.478993857245756</v>
+        <v>6.638862286783572</v>
       </c>
       <c r="D22">
-        <v>5.518671648431772</v>
+        <v>7.628784054923732</v>
       </c>
       <c r="E22">
-        <v>11.64416928244677</v>
+        <v>17.24643326103404</v>
       </c>
       <c r="F22">
-        <v>46.53462651774783</v>
+        <v>56.45769865923532</v>
       </c>
       <c r="G22">
-        <v>61.66507239327527</v>
+        <v>91.87556361881629</v>
       </c>
       <c r="H22">
-        <v>22.15439530232657</v>
+        <v>22.66647616310343</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.684872385318887</v>
+        <v>12.84430816388028</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.927270530701135</v>
+        <v>13.44033842483287</v>
       </c>
       <c r="M22">
-        <v>78.08786628756377</v>
+        <v>147.1046855460181</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.545148983844213</v>
+        <v>6.638862286783572</v>
       </c>
       <c r="D23">
-        <v>5.474207368817307</v>
+        <v>7.628784054923732</v>
       </c>
       <c r="E23">
-        <v>11.61458453329714</v>
+        <v>17.24643326103404</v>
       </c>
       <c r="F23">
-        <v>46.78346093234111</v>
+        <v>56.45769865923532</v>
       </c>
       <c r="G23">
-        <v>61.93582807898827</v>
+        <v>91.87556361881629</v>
       </c>
       <c r="H23">
-        <v>22.25496049453872</v>
+        <v>22.66647616310343</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.711083835791619</v>
+        <v>12.84430816388028</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.888490275511797</v>
+        <v>13.44033842483287</v>
       </c>
       <c r="M23">
-        <v>76.91734327033039</v>
+        <v>147.1046855460181</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.801107799603956</v>
+        <v>4.038887567180842</v>
       </c>
       <c r="D24">
-        <v>5.301834197806478</v>
+        <v>6.952537417119699</v>
       </c>
       <c r="E24">
-        <v>11.50839755176331</v>
+        <v>14.57907532932903</v>
       </c>
       <c r="F24">
-        <v>47.78235712082086</v>
+        <v>42.65119791627588</v>
       </c>
       <c r="G24">
-        <v>63.06225279256117</v>
+        <v>70.62612225048659</v>
       </c>
       <c r="H24">
-        <v>22.65596650833618</v>
+        <v>17.40467274912124</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.816681348655194</v>
+        <v>10.55775634970644</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.742630036899094</v>
+        <v>11.79274880819644</v>
       </c>
       <c r="M24">
-        <v>72.31239679370468</v>
+        <v>128.9391943289453</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.08917491754509</v>
+        <v>1.99038836996887</v>
       </c>
       <c r="D25">
-        <v>5.107870033168248</v>
+        <v>6.203690107084695</v>
       </c>
       <c r="E25">
-        <v>11.40633599277107</v>
+        <v>12.23091286456441</v>
       </c>
       <c r="F25">
-        <v>48.97468926642887</v>
+        <v>32.01832594994482</v>
       </c>
       <c r="G25">
-        <v>64.47930105339498</v>
+        <v>53.8817056920218</v>
       </c>
       <c r="H25">
-        <v>23.13005491158086</v>
+        <v>13.30683495647664</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.943653959021132</v>
+        <v>8.636475714137571</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.587889153071265</v>
+        <v>10.19944976203176</v>
       </c>
       <c r="M25">
-        <v>66.98461720017285</v>
+        <v>111.4351780971894</v>
       </c>
       <c r="N25">
         <v>0</v>
